--- a/dados/Dados_grafico.xlsx
+++ b/dados/Dados_grafico.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\Trabalho Spotify\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BD419D-D4B8-4979-A98A-FE16808C903B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView windowWidth="14750" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="Dados_grafico" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Time_submitted</t>
+    <t>Meses</t>
   </si>
   <si>
     <t>Avaliacao_Media</t>
@@ -52,35 +46,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,7 +82,57 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,73 +140,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +148,52 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,14 +201,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,175 +214,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,29 +408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,17 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,6 +467,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,114 +515,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -604,53 +657,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2817147856517939E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.8966272965879265"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.0728171478565179"/>
+          <c:y val="0.167083333333333"/>
+          <c:w val="0.896627296587927"/>
+          <c:h val="0.720887649460484"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -688,6 +705,60 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Dados_grafico!$A$2:$A$8</c:f>
@@ -748,20 +819,16 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0366-4B91-9BFD-59628010FAD6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="1504114319"/>
         <c:axId val="1559545599"/>
@@ -773,6 +840,40 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="pt-BR" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>meses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -791,11 +892,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -806,7 +907,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1559545599"/>
@@ -839,6 +939,40 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="pt-BR" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>avaliacao_media</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -851,11 +985,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -866,7 +1000,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1504114319"/>
@@ -883,13 +1016,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -911,7 +1037,6 @@
       <a:path path="circle">
         <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
-      <a:tileRect/>
     </a:gradFill>
     <a:ln>
       <a:noFill/>
@@ -923,14 +1048,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="pt-BR"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1037,7 +1161,6 @@
         <a:path path="circle">
           <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
         </a:path>
-        <a:tileRect/>
       </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
@@ -1473,34 +1596,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>413385</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73578184-DC97-48BF-8432-451FFF7527EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3079750" y="635"/>
+        <a:ext cx="5506085" cy="3092450"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1556,7 +1673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1589,26 +1706,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1641,23 +1741,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1799,30 +1882,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.8909090909091" customWidth="1"/>
+    <col min="2" max="2" width="18.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1916,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1924,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1932,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1940,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1870,7 +1948,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1956,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +1965,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>